--- a/outlier_detection/output.xlsx
+++ b/outlier_detection/output.xlsx
@@ -458,7 +458,7 @@
         <v>23801</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         <v>23801</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>23801</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         <v>23801</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>23801</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>23801</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>23801</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>23801</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         <v>23801</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>23801</v>
       </c>
       <c r="C33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>23801</v>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>23801</v>
       </c>
       <c r="C35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>23801</v>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>23801</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>23801</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>23801</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>23801</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>23801</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>23895</v>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>24256</v>
       </c>
       <c r="C56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>24256</v>
       </c>
       <c r="C62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>25400</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>25400</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>25400</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>25400</v>
       </c>
       <c r="C111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>25400</v>
       </c>
       <c r="C116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>25400</v>
       </c>
       <c r="C120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>25400</v>
       </c>
       <c r="C122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>25400</v>
       </c>
       <c r="C126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>25400</v>
       </c>
       <c r="C127" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>25400</v>
       </c>
       <c r="C128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>25400</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>25400</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>25400</v>
       </c>
       <c r="C139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>25400</v>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>25400</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>25400</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>25400</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>25400</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>25400</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>25400</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>25400</v>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>25400</v>
       </c>
       <c r="C165" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>25400</v>
       </c>
       <c r="C166" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>25961</v>
       </c>
       <c r="C176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>26354</v>
       </c>
       <c r="C177" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>26354</v>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>26354</v>
       </c>
       <c r="C184" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>26354</v>
       </c>
       <c r="C185" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>26527</v>
       </c>
       <c r="C188" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>26715</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>26715</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>26715</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>26715</v>
       </c>
       <c r="C206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>26715</v>
       </c>
       <c r="C207" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>26715</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>26715</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>26715</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>26715</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>26715</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>26715</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>26715</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>26715</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>26745</v>
       </c>
       <c r="C239" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>27402</v>
       </c>
       <c r="C261" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>27557</v>
       </c>
       <c r="C262" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>27557</v>
       </c>
       <c r="C266" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>27557</v>
       </c>
       <c r="C267" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>27557</v>
       </c>
       <c r="C268" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>27557</v>
       </c>
       <c r="C271" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>27557</v>
       </c>
       <c r="C272" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>27791</v>
       </c>
       <c r="C273" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>27791</v>
       </c>
       <c r="C278" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>27791</v>
       </c>
       <c r="C281" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>27791</v>
       </c>
       <c r="C282" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>28262</v>
       </c>
       <c r="C303" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>28624</v>
       </c>
       <c r="C312" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>28624</v>
       </c>
       <c r="C318" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
